--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H2">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I2">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J2">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>10.2600489307994</v>
+        <v>50.81183724496199</v>
       </c>
       <c r="R2">
-        <v>10.2600489307994</v>
+        <v>457.3065352046579</v>
       </c>
       <c r="S2">
-        <v>0.0008961300239676276</v>
+        <v>0.002727590181812978</v>
       </c>
       <c r="T2">
-        <v>0.0008961300239676276</v>
+        <v>0.002832348151206667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H3">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I3">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J3">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>15.59190824305015</v>
+        <v>32.85296622374267</v>
       </c>
       <c r="R3">
-        <v>15.59190824305015</v>
+        <v>295.676696013684</v>
       </c>
       <c r="S3">
-        <v>0.001361823632790117</v>
+        <v>0.001763554182922183</v>
       </c>
       <c r="T3">
-        <v>0.001361823632790117</v>
+        <v>0.00183128662907576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H4">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I4">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J4">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>0.8893129796565439</v>
+        <v>1.932606618682777</v>
       </c>
       <c r="R4">
-        <v>0.8893129796565439</v>
+        <v>17.393459568145</v>
       </c>
       <c r="S4">
-        <v>7.767409952422601E-05</v>
+        <v>0.0001037427324859933</v>
       </c>
       <c r="T4">
-        <v>7.767409952422601E-05</v>
+        <v>0.0001077271572969675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H5">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I5">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J5">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>1.629105134510566</v>
+        <v>3.798708451792444</v>
       </c>
       <c r="R5">
-        <v>1.629105134510566</v>
+        <v>34.18837606613199</v>
       </c>
       <c r="S5">
-        <v>0.0001422887973616119</v>
+        <v>0.0002039154740012157</v>
       </c>
       <c r="T5">
-        <v>0.0001422887973616119</v>
+        <v>0.0002117472117478738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H6">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I6">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J6">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>3.914952656955397</v>
+        <v>8.064069353961665</v>
       </c>
       <c r="R6">
-        <v>3.914952656955397</v>
+        <v>48.38441612377</v>
       </c>
       <c r="S6">
-        <v>0.0003419385854757539</v>
+        <v>0.0004328809503440189</v>
       </c>
       <c r="T6">
-        <v>0.0003419385854757539</v>
+        <v>0.0002996710105925863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H7">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J7">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>3517.416328054222</v>
+        <v>9368.9860310614</v>
       </c>
       <c r="R7">
-        <v>3517.416328054222</v>
+        <v>84320.87427955262</v>
       </c>
       <c r="S7">
-        <v>0.307217090252002</v>
+        <v>0.5029291538636458</v>
       </c>
       <c r="T7">
-        <v>0.307217090252002</v>
+        <v>0.5222450456933423</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H8">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I8">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J8">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>5345.318819581381</v>
+        <v>6057.62354439753</v>
       </c>
       <c r="R8">
-        <v>5345.318819581381</v>
+        <v>54518.61189957777</v>
       </c>
       <c r="S8">
-        <v>0.4668691849535712</v>
+        <v>0.3251745144573781</v>
       </c>
       <c r="T8">
-        <v>0.4668691849535712</v>
+        <v>0.3376634220873694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H9">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I9">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J9">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>304.8800270342142</v>
+        <v>356.3453989408939</v>
       </c>
       <c r="R9">
-        <v>304.8800270342142</v>
+        <v>3207.108590468045</v>
       </c>
       <c r="S9">
-        <v>0.0266287371313866</v>
+        <v>0.0191286964649518</v>
       </c>
       <c r="T9">
-        <v>0.0266287371313866</v>
+        <v>0.01986336819539653</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H10">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I10">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J10">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>558.5003579313311</v>
+        <v>700.4282535453302</v>
       </c>
       <c r="R10">
-        <v>558.5003579313311</v>
+        <v>6303.854281907972</v>
       </c>
       <c r="S10">
-        <v>0.04878036571897103</v>
+        <v>0.03759913695354675</v>
       </c>
       <c r="T10">
-        <v>0.04878036571897103</v>
+        <v>0.03904319891874665</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H11">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I11">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J11">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>1342.149388566441</v>
+        <v>1486.900636293528</v>
       </c>
       <c r="R11">
-        <v>1342.149388566441</v>
+        <v>8921.403817761171</v>
       </c>
       <c r="S11">
-        <v>0.1172255972516567</v>
+        <v>0.07981714098101848</v>
       </c>
       <c r="T11">
-        <v>0.1172255972516567</v>
+        <v>0.05525510716372237</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H12">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I12">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J12">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>0.8289913529102246</v>
+        <v>5.563140803351999</v>
       </c>
       <c r="R12">
-        <v>0.8289913529102246</v>
+        <v>50.068267230168</v>
       </c>
       <c r="S12">
-        <v>7.240550663675197E-05</v>
+        <v>0.0002986305762201224</v>
       </c>
       <c r="T12">
-        <v>7.240550663675197E-05</v>
+        <v>0.0003101000165239783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H13">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I13">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J13">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>1.259794879735642</v>
+        <v>3.596911405296</v>
       </c>
       <c r="R13">
-        <v>1.259794879735642</v>
+        <v>32.372202647664</v>
       </c>
       <c r="S13">
-        <v>0.0001100326151840132</v>
+        <v>0.0001930829658183487</v>
       </c>
       <c r="T13">
-        <v>0.0001100326151840132</v>
+        <v>0.0002004986617533577</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H14">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I14">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J14">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>0.0718547031440581</v>
+        <v>0.21159169438</v>
       </c>
       <c r="R14">
-        <v>0.0718547031440581</v>
+        <v>1.90432524942</v>
       </c>
       <c r="S14">
-        <v>6.275911283169155E-06</v>
+        <v>1.13582869550989E-05</v>
       </c>
       <c r="T14">
-        <v>6.275911283169155E-06</v>
+        <v>1.179452223895525E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H15">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I15">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J15">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>0.1316284238603221</v>
+        <v>0.4159021034079999</v>
       </c>
       <c r="R15">
-        <v>0.1316284238603221</v>
+        <v>3.743118930672</v>
       </c>
       <c r="S15">
-        <v>1.149664913143656E-05</v>
+        <v>2.232571297081968E-05</v>
       </c>
       <c r="T15">
-        <v>1.149664913143656E-05</v>
+        <v>2.318317182650997E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H16">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I16">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J16">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N16">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O16">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P16">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q16">
-        <v>0.3163203140217449</v>
+        <v>0.8828957128199999</v>
       </c>
       <c r="R16">
-        <v>0.3163203140217449</v>
+        <v>5.29737427692</v>
       </c>
       <c r="S16">
-        <v>2.762795114308174E-05</v>
+        <v>4.739402880165239E-05</v>
       </c>
       <c r="T16">
-        <v>2.762795114308174E-05</v>
+        <v>3.280952071408598E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H17">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I17">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J17">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N17">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O17">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P17">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q17">
-        <v>0.5597881469478005</v>
+        <v>5.147340910181999</v>
       </c>
       <c r="R17">
-        <v>0.5597881469478005</v>
+        <v>46.326068191638</v>
       </c>
       <c r="S17">
-        <v>4.889284338939712E-05</v>
+        <v>0.0002763103499165197</v>
       </c>
       <c r="T17">
-        <v>4.889284338939712E-05</v>
+        <v>0.0002869225420899329</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H18">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I18">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J18">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N18">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P18">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q18">
-        <v>0.8506943272518235</v>
+        <v>3.328071296636</v>
       </c>
       <c r="R18">
-        <v>0.8506943272518235</v>
+        <v>29.952641669724</v>
       </c>
       <c r="S18">
-        <v>7.430108111676475E-05</v>
+        <v>0.0001786515718633651</v>
       </c>
       <c r="T18">
-        <v>7.430108111676475E-05</v>
+        <v>0.000185513004355015</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H19">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I19">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J19">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N19">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O19">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P19">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q19">
-        <v>0.04852090553332052</v>
+        <v>0.1957769222883333</v>
       </c>
       <c r="R19">
-        <v>0.04852090553332052</v>
+        <v>1.761992300595</v>
       </c>
       <c r="S19">
-        <v>4.237897941010867E-06</v>
+        <v>1.050934664072133E-05</v>
       </c>
       <c r="T19">
-        <v>4.237897941010867E-06</v>
+        <v>1.091297685653498E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H20">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I20">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J20">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N20">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O20">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P20">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q20">
-        <v>0.0888839566537782</v>
+        <v>0.3848167765613333</v>
       </c>
       <c r="R20">
-        <v>0.0888839566537782</v>
+        <v>3.463350989052</v>
       </c>
       <c r="S20">
-        <v>7.763275082186366E-06</v>
+        <v>2.065704604392516E-05</v>
       </c>
       <c r="T20">
-        <v>7.763275082186366E-06</v>
+        <v>2.145041676789337E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H21">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I21">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J21">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N21">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O21">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P21">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q21">
-        <v>0.2135997701381994</v>
+        <v>0.8169063812449999</v>
       </c>
       <c r="R21">
-        <v>0.2135997701381994</v>
+        <v>4.90143828747</v>
       </c>
       <c r="S21">
-        <v>1.865616513375738E-05</v>
+        <v>4.38517075106383E-05</v>
       </c>
       <c r="T21">
-        <v>1.865616513375738E-05</v>
+        <v>3.035727373884209E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H22">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I22">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J22">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N22">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O22">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P22">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q22">
-        <v>109.4369738067114</v>
+        <v>281.821731779223</v>
       </c>
       <c r="R22">
-        <v>109.4369738067114</v>
+        <v>1690.930390675338</v>
       </c>
       <c r="S22">
-        <v>0.009558410356695244</v>
+        <v>0.01512825023265136</v>
       </c>
       <c r="T22">
-        <v>0.009558410356695244</v>
+        <v>0.01047285179011297</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H23">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I23">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J23">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N23">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P23">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q23">
-        <v>166.3082959447817</v>
+        <v>182.215017942054</v>
       </c>
       <c r="R23">
-        <v>166.3082959447817</v>
+        <v>1093.290107652324</v>
       </c>
       <c r="S23">
-        <v>0.01452564780501498</v>
+        <v>0.00978134074392086</v>
       </c>
       <c r="T23">
-        <v>0.01452564780501498</v>
+        <v>0.006771340395902695</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H24">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I24">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J24">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N24">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O24">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P24">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q24">
-        <v>9.485697574841762</v>
+        <v>10.7189697058075</v>
       </c>
       <c r="R24">
-        <v>9.485697574841762</v>
+        <v>64.313818234845</v>
       </c>
       <c r="S24">
-        <v>0.0008284968670641923</v>
+        <v>0.0005753965633590652</v>
       </c>
       <c r="T24">
-        <v>0.0008284968670641923</v>
+        <v>0.0003983304635980839</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H25">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I25">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J25">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N25">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O25">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P25">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q25">
-        <v>17.37655805896055</v>
+        <v>21.069078633142</v>
       </c>
       <c r="R25">
-        <v>17.37655805896055</v>
+        <v>126.414471798852</v>
       </c>
       <c r="S25">
-        <v>0.001517697965660476</v>
+        <v>0.001130992602029986</v>
       </c>
       <c r="T25">
-        <v>0.001517697965660476</v>
+        <v>0.0007829535944090722</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H26">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I26">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J26">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N26">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O26">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P26">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q26">
-        <v>41.75814114176565</v>
+        <v>44.7263888444925</v>
       </c>
       <c r="R26">
-        <v>41.75814114176565</v>
+        <v>178.90555537797</v>
       </c>
       <c r="S26">
-        <v>0.003647226662816553</v>
+        <v>0.002400922023190238</v>
       </c>
       <c r="T26">
-        <v>0.003647226662816553</v>
+        <v>0.001108059430615008</v>
       </c>
     </row>
   </sheetData>
